--- a/dailyfresh/说明.xlsx
+++ b/dailyfresh/说明.xlsx
@@ -16,7 +16,103 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
+  <si>
+    <t>uphone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharField</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BooleanField</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gcontent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起订量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gpic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gprice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharField</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DecimalField</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoodsInfo：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeInfo：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>UserInfo:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,11 +142,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uphone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户手机</t>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -58,39 +166,68 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>含义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货人姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详细地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长度</t>
+    <t>用户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gkucun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gclick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gunit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gjianjie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForeignKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品信息表</t>
+  </si>
+  <si>
+    <t>商品价格</t>
+  </si>
+  <si>
+    <t>商品简介</t>
+  </si>
+  <si>
+    <t>IntegerField</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ttitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -98,7 +235,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型</t>
+    <t>BooleanField</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属分类 外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总共最多有7位,小数占2位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UEditorField</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -106,15 +263,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BooleanField</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认false</t>
+    <t>ImagerField</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmoq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntegerField</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,7 +283,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,16 +306,37 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -273,13 +455,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -308,6 +499,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -315,6 +548,32 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -340,7 +599,9 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -370,76 +631,9 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -506,6 +700,37 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -515,19 +740,27 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -536,17 +769,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E9" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
-  <autoFilter ref="A1:E9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E25" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:E25">
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="模型类" dataDxfId="6"/>
-    <tableColumn id="2" name="字段" dataDxfId="5"/>
-    <tableColumn id="5" name="类型" dataDxfId="0"/>
+    <tableColumn id="1" name="模型类" dataDxfId="4"/>
+    <tableColumn id="2" name="字段" dataDxfId="3"/>
+    <tableColumn id="5" name="类型" dataDxfId="2"/>
     <tableColumn id="4" name="长度" dataDxfId="1"/>
-    <tableColumn id="3" name="含义" dataDxfId="4"/>
+    <tableColumn id="3" name="含义" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -837,157 +1070,370 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="4" max="4" width="24.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="6">
-        <v>20</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>17</v>
+      <c r="A2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D3" s="6">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4" s="6">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" s="6">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" s="6">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5">
       <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="6">
+        <v>6</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5">
+      <c r="A9" s="4"/>
+      <c r="B9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="9">
+        <v>11</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5">
+      <c r="A11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5">
+      <c r="A12" s="7"/>
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="6">
+        <v>35</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5">
+      <c r="A13" s="7"/>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5">
+      <c r="A14" s="7"/>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5">
+      <c r="A15" s="7"/>
+      <c r="B15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.5">
+      <c r="A16" s="7"/>
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5">
+      <c r="A17" s="7"/>
+      <c r="B17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="6">
+        <v>20</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="9">
+    </row>
+    <row r="18" spans="1:5" ht="16.5">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="6">
+        <v>200</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5">
+      <c r="A20" s="4"/>
+      <c r="B20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="E20" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5">
+      <c r="A21" s="4"/>
+      <c r="B21" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.5">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.5">
+      <c r="A23" s="10" t="s">
         <v>23</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.5">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.5">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
